--- a/project/excel/mixs_subset_examples_first.xlsx
+++ b/project/excel/mixs_subset_examples_first.xlsx
@@ -1263,7 +1263,13 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="9">
+    <dataValidation sqref="BI2:BI1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
+    </dataValidation>
+    <dataValidation sqref="CN2:CN1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autotroph,carboxydotroph,chemoautolithotroph,chemoautotroph,chemoheterotroph,chemolithoautotroph,chemolithotroph,chemoorganoheterotroph,chemoorganotroph,chemosynthetic,chemotroph,copiotroph,diazotroph,facultative,heterotroph,lithoautotroph,lithoheterotroph,lithotroph,methanotroph,methylotroph,mixotroph,obligate,oligotroph,organoheterotroph,organotroph,photoautotroph,photoheterotroph,photolithoautotroph,photolithotroph,photosynthetic,phototroph"</formula1>
+    </dataValidation>
     <dataValidation sqref="CQ2:CQ1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobic,anaerobic,other"</formula1>
     </dataValidation>
@@ -5378,15 +5384,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Finished genome,Genome fragment(s),High-quality draft genome,Low-quality draft genome,Medium-quality draft genome"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
     </dataValidation>
     <dataValidation sqref="AA2:AA1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
     <dataValidation sqref="AF2:AF1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
+    </dataValidation>
+    <dataValidation sqref="BG2:BG1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autotroph,carboxydotroph,chemoautolithotroph,chemoautotroph,chemoheterotroph,chemolithoautotroph,chemolithotroph,chemoorganoheterotroph,chemoorganotroph,chemosynthetic,chemotroph,copiotroph,diazotroph,facultative,heterotroph,lithoautotroph,lithoheterotroph,lithotroph,methanotroph,methylotroph,mixotroph,obligate,oligotroph,organoheterotroph,organotroph,photoautotroph,photoheterotroph,photolithoautotroph,photolithotroph,photosynthetic,phototroph"</formula1>
     </dataValidation>
     <dataValidation sqref="CS2:CS1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobic,anaerobic,other"</formula1>
@@ -6028,15 +6040,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="7">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Finished genome,Genome fragment(s),High-quality draft genome,Low-quality draft genome,Medium-quality draft genome"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
     </dataValidation>
     <dataValidation sqref="AA2:AA1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
     <dataValidation sqref="AF2:AF1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
+    </dataValidation>
+    <dataValidation sqref="BG2:BG1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autotroph,carboxydotroph,chemoautolithotroph,chemoautotroph,chemoheterotroph,chemolithoautotroph,chemolithotroph,chemoorganoheterotroph,chemoorganotroph,chemosynthetic,chemotroph,copiotroph,diazotroph,facultative,heterotroph,lithoautotroph,lithoheterotroph,lithotroph,methanotroph,methylotroph,mixotroph,obligate,oligotroph,organoheterotroph,organotroph,photoautotroph,photoheterotroph,photolithoautotroph,photolithotroph,photosynthetic,phototroph"</formula1>
     </dataValidation>
     <dataValidation sqref="CQ2:CQ1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobic,anaerobic,other"</formula1>
@@ -6621,15 +6639,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="10">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Finished genome,Genome fragment(s),High-quality draft genome,Low-quality draft genome,Medium-quality draft genome"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
     </dataValidation>
     <dataValidation sqref="AA2:AA1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
     <dataValidation sqref="AF2:AF1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
+    </dataValidation>
+    <dataValidation sqref="BG2:BG1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autotroph,carboxydotroph,chemoautolithotroph,chemoautotroph,chemoheterotroph,chemolithoautotroph,chemolithotroph,chemoorganoheterotroph,chemoorganotroph,chemosynthetic,chemotroph,copiotroph,diazotroph,facultative,heterotroph,lithoautotroph,lithoheterotroph,lithotroph,methanotroph,methylotroph,mixotroph,obligate,oligotroph,organoheterotroph,organotroph,photoautotroph,photoheterotroph,photolithoautotroph,photolithotroph,photosynthetic,phototroph"</formula1>
     </dataValidation>
     <dataValidation sqref="BH2:BH1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"badlands,cities,conifers (e.g. pine, spruce, fir, cypress),crop trees (nuts, fruit, christmas trees, nursery trees),farmstead,gravel,hardwoods (e.g. oak, hickory, elm, aspen),hayland,horticultural plants (e.g. tulips),industrial areas,intermixed hardwood and conifers,marshlands (grass, sedges, rushes),meadows (grasses, alfalfa, fescue, bromegrass, timothy),mines or quarries,mudflats,oil waste areas,pastureland (grasslands used for livestock grazing),permanent snow or ice,rainforest (evergreen forest receiving greater than 406 cm annual rainfall),rangeland,roads or railroads,rock,row crops,saline seeps,salt flats,sand,shrub crops (blueberries, nursery ornamentals, filberts),shrub land (e.g. mesquite, sage-brush, creosote bush, shrub oak, eucalyptus),small grains,successional shrub land (tree saplings, hazels, sumacs, chokecherry, shrub dogwoods, blackberries),swamp (permanent or semi-permanent water body dominated by woody plants),tropical (e.g. mangrove, palms),tundra (mosses, lichens),vegetable crops,vine crops (grapes)"</formula1>
@@ -7358,15 +7382,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="7">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Finished genome,Genome fragment(s),High-quality draft genome,Low-quality draft genome,Medium-quality draft genome"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
     </dataValidation>
     <dataValidation sqref="AA2:AA1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
     <dataValidation sqref="AF2:AF1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
+    </dataValidation>
+    <dataValidation sqref="BG2:BG1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autotroph,carboxydotroph,chemoautolithotroph,chemoautotroph,chemoheterotroph,chemolithoautotroph,chemolithotroph,chemoorganoheterotroph,chemoorganotroph,chemosynthetic,chemotroph,copiotroph,diazotroph,facultative,heterotroph,lithoautotroph,lithoheterotroph,lithotroph,methanotroph,methylotroph,mixotroph,obligate,oligotroph,organoheterotroph,organotroph,photoautotroph,photoheterotroph,photolithoautotroph,photolithotroph,photosynthetic,phototroph"</formula1>
     </dataValidation>
     <dataValidation sqref="CZ2:CZ1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobic,anaerobic,other"</formula1>
